--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/a-Atrn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/a-Atrn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Atrn</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H2">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.87591</v>
+        <v>11.21848733333333</v>
       </c>
       <c r="N2">
-        <v>32.62773</v>
+        <v>33.655462</v>
       </c>
       <c r="O2">
-        <v>0.2904340445780247</v>
+        <v>0.2956250300902271</v>
       </c>
       <c r="P2">
-        <v>0.2904340445780247</v>
+        <v>0.2956250300902271</v>
       </c>
       <c r="Q2">
-        <v>2.34034356926</v>
+        <v>0.508634997206</v>
       </c>
       <c r="R2">
-        <v>21.06309212334</v>
+        <v>4.577714974854</v>
       </c>
       <c r="S2">
-        <v>0.2904340445780247</v>
+        <v>0.05144743590542483</v>
       </c>
       <c r="T2">
-        <v>0.2904340445780247</v>
+        <v>0.05144743590542484</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H3">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>35.306421</v>
       </c>
       <c r="O3">
-        <v>0.3142782734381003</v>
+        <v>0.310126830839619</v>
       </c>
       <c r="P3">
-        <v>0.3142782734381003</v>
+        <v>0.3101268308396189</v>
       </c>
       <c r="Q3">
-        <v>2.532482503102</v>
+        <v>0.533585940573</v>
       </c>
       <c r="R3">
-        <v>22.792342527918</v>
+        <v>4.802273465157</v>
       </c>
       <c r="S3">
-        <v>0.3142782734381003</v>
+        <v>0.0539711750635735</v>
       </c>
       <c r="T3">
-        <v>0.3142782734381003</v>
+        <v>0.0539711750635735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H4">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.269663333333334</v>
+        <v>10.88760366666667</v>
       </c>
       <c r="N4">
-        <v>27.80899</v>
+        <v>32.662811</v>
       </c>
       <c r="O4">
-        <v>0.2475402806548247</v>
+        <v>0.2869057178506835</v>
       </c>
       <c r="P4">
-        <v>0.2475402806548247</v>
+        <v>0.2869057178506835</v>
       </c>
       <c r="Q4">
-        <v>1.994701774046667</v>
+        <v>0.4936330626430001</v>
       </c>
       <c r="R4">
-        <v>17.95231596642</v>
+        <v>4.442697563787001</v>
       </c>
       <c r="S4">
-        <v>0.2475402806548247</v>
+        <v>0.04993001954373722</v>
       </c>
       <c r="T4">
-        <v>0.2475402806548247</v>
+        <v>0.04993001954373723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H5">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.532710333333333</v>
+        <v>4.073469666666667</v>
       </c>
       <c r="N5">
-        <v>16.598131</v>
+        <v>12.220409</v>
       </c>
       <c r="O5">
-        <v>0.1477474013290503</v>
+        <v>0.1073424212194705</v>
       </c>
       <c r="P5">
-        <v>0.1477474013290503</v>
+        <v>0.1073424212194704</v>
       </c>
       <c r="Q5">
-        <v>1.190561805788667</v>
+        <v>0.184687041217</v>
       </c>
       <c r="R5">
-        <v>10.715056252098</v>
+        <v>1.662183370953</v>
       </c>
       <c r="S5">
-        <v>0.1477474013290503</v>
+        <v>0.01868073327193003</v>
       </c>
       <c r="T5">
-        <v>0.1477474013290503</v>
+        <v>0.01868073327193003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.215186</v>
+      </c>
+      <c r="H6">
+        <v>0.645558</v>
+      </c>
+      <c r="I6">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J6">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>11.21848733333333</v>
+      </c>
+      <c r="N6">
+        <v>33.655462</v>
+      </c>
+      <c r="O6">
+        <v>0.2956250300902271</v>
+      </c>
+      <c r="P6">
+        <v>0.2956250300902271</v>
+      </c>
+      <c r="Q6">
+        <v>2.414061415310667</v>
+      </c>
+      <c r="R6">
+        <v>21.726552737796</v>
+      </c>
+      <c r="S6">
+        <v>0.2441775941848022</v>
+      </c>
+      <c r="T6">
+        <v>0.2441775941848023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.215186</v>
+      </c>
+      <c r="H7">
+        <v>0.645558</v>
+      </c>
+      <c r="I7">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J7">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>11.768807</v>
+      </c>
+      <c r="N7">
+        <v>35.306421</v>
+      </c>
+      <c r="O7">
+        <v>0.310126830839619</v>
+      </c>
+      <c r="P7">
+        <v>0.3101268308396189</v>
+      </c>
+      <c r="Q7">
+        <v>2.532482503102</v>
+      </c>
+      <c r="R7">
+        <v>22.792342527918</v>
+      </c>
+      <c r="S7">
+        <v>0.2561556557760455</v>
+      </c>
+      <c r="T7">
+        <v>0.2561556557760455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.215186</v>
+      </c>
+      <c r="H8">
+        <v>0.645558</v>
+      </c>
+      <c r="I8">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J8">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.88760366666667</v>
+      </c>
+      <c r="N8">
+        <v>32.662811</v>
+      </c>
+      <c r="O8">
+        <v>0.2869057178506835</v>
+      </c>
+      <c r="P8">
+        <v>0.2869057178506835</v>
+      </c>
+      <c r="Q8">
+        <v>2.342859882615334</v>
+      </c>
+      <c r="R8">
+        <v>21.085738943538</v>
+      </c>
+      <c r="S8">
+        <v>0.2369756983069463</v>
+      </c>
+      <c r="T8">
+        <v>0.2369756983069463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.215186</v>
+      </c>
+      <c r="H9">
+        <v>0.645558</v>
+      </c>
+      <c r="I9">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J9">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.073469666666667</v>
+      </c>
+      <c r="N9">
+        <v>12.220409</v>
+      </c>
+      <c r="O9">
+        <v>0.1073424212194705</v>
+      </c>
+      <c r="P9">
+        <v>0.1073424212194704</v>
+      </c>
+      <c r="Q9">
+        <v>0.8765536436913334</v>
+      </c>
+      <c r="R9">
+        <v>7.888982793222</v>
+      </c>
+      <c r="S9">
+        <v>0.08866168794754042</v>
+      </c>
+      <c r="T9">
+        <v>0.08866168794754042</v>
       </c>
     </row>
   </sheetData>
